--- a/algorithms_results/Yardens_results/BruteForce_subgroups_results_delta_20000_2.xlsx
+++ b/algorithms_results/Yardens_results/BruteForce_subgroups_results_delta_20000_2.xlsx
@@ -450,12 +450,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'RaceEthnicity': 'White or of European descent'}</t>
+          <t>{'SexualOrientation': 'Straight or heterosexual'}</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{'HoursComputer': '1 - 4 hours', 'FormalEducation': 'Master’s degree (MA, MS, M.Eng., MBA, etc.)'}</t>
+          <t>{'DevType': 'Back-end developer'}</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24271</v>
+        <v>28842</v>
       </c>
       <c r="C2" t="n">
-        <v>75305.94186742087</v>
+        <v>5516.21828962618</v>
       </c>
       <c r="D2" t="n">
-        <v>11382.2763169144</v>
+        <v>-1197.137411587141</v>
       </c>
     </row>
     <row r="3">
@@ -554,317 +554,397 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25010</v>
+        <v>29526</v>
       </c>
       <c r="C3" t="n">
-        <v>69037.25289973368</v>
+        <v>5617.758312088003</v>
       </c>
       <c r="D3" t="n">
-        <v>5113.587349227208</v>
+        <v>-1095.597389125319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2)}</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27355</v>
+        <v>22173</v>
       </c>
       <c r="C4" t="n">
-        <v>28760.07708329829</v>
+        <v>3542.149042873403</v>
       </c>
       <c r="D4" t="n">
-        <v>-35163.58846720819</v>
+        <v>-3171.206658339918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27379</v>
+        <v>33253</v>
       </c>
       <c r="C5" t="n">
-        <v>66186.82906464252</v>
+        <v>5920.984439082945</v>
       </c>
       <c r="D5" t="n">
-        <v>2263.163514136046</v>
+        <v>-792.3712621303766</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2)}</t>
+          <t>{'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20567</v>
+        <v>27379</v>
       </c>
       <c r="C6" t="n">
-        <v>44769.6150714461</v>
+        <v>6509.936391650183</v>
       </c>
       <c r="D6" t="n">
-        <v>-19154.05047906037</v>
+        <v>-203.4193095631381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25023</v>
+        <v>24167</v>
       </c>
       <c r="C7" t="n">
-        <v>92651.2553000177</v>
+        <v>7072.162954162452</v>
       </c>
       <c r="D7" t="n">
-        <v>28727.58974951123</v>
+        <v>358.8072529491301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20375</v>
+        <v>27581</v>
       </c>
       <c r="C8" t="n">
-        <v>82970.69846509804</v>
+        <v>8280.034330059932</v>
       </c>
       <c r="D8" t="n">
-        <v>19047.03291459157</v>
+        <v>1566.678628846611</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22770</v>
+        <v>23894</v>
       </c>
       <c r="C9" t="n">
-        <v>33500.5330174407</v>
+        <v>4208.446115890501</v>
       </c>
       <c r="D9" t="n">
-        <v>-30423.13253306577</v>
+        <v>-2504.90958532282</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22529</v>
+        <v>27456</v>
       </c>
       <c r="C10" t="n">
-        <v>77205.08079836208</v>
+        <v>5084.527001737077</v>
       </c>
       <c r="D10" t="n">
-        <v>13281.41524785561</v>
+        <v>-1628.828699476245</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20675</v>
+        <v>22529</v>
       </c>
       <c r="C11" t="n">
-        <v>106758.1933671348</v>
+        <v>5345.204113474854</v>
       </c>
       <c r="D11" t="n">
-        <v>42834.52781662828</v>
+        <v>-1368.151587738467</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23188</v>
+        <v>22660</v>
       </c>
       <c r="C12" t="n">
-        <v>30756.07440513934</v>
+        <v>7025.684796894849</v>
       </c>
       <c r="D12" t="n">
-        <v>-33167.59114536713</v>
+        <v>312.3290956815272</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23264</v>
+        <v>27820</v>
       </c>
       <c r="C13" t="n">
-        <v>71635.86104707757</v>
+        <v>4860.761884746209</v>
       </c>
       <c r="D13" t="n">
-        <v>7712.195496571105</v>
+        <v>-1852.593816467112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21710</v>
+        <v>23264</v>
       </c>
       <c r="C14" t="n">
-        <v>97371.55623112104</v>
+        <v>5618.412897795355</v>
       </c>
       <c r="D14" t="n">
-        <v>33447.89068061457</v>
+        <v>-1094.942803417966</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25910</v>
+        <v>23773</v>
       </c>
       <c r="C15" t="n">
-        <v>29696.54061095317</v>
+        <v>7095.77558069452</v>
       </c>
       <c r="D15" t="n">
-        <v>-34227.12493955331</v>
+        <v>382.4198794811982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23143</v>
+        <v>21070</v>
       </c>
       <c r="C16" t="n">
-        <v>51877.44343435086</v>
+        <v>2140.616974317039</v>
       </c>
       <c r="D16" t="n">
-        <v>-12046.22211615561</v>
+        <v>-4572.738726896283</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>23146</v>
+        <v>25910</v>
       </c>
       <c r="C17" t="n">
-        <v>92329.32285938319</v>
+        <v>6471.012774252379</v>
       </c>
       <c r="D17" t="n">
-        <v>28405.65730887672</v>
+        <v>-242.3429269609423</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Gender': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21544</v>
+        <v>22568</v>
       </c>
       <c r="C18" t="n">
-        <v>34403.67592435614</v>
+        <v>6660.009269424866</v>
       </c>
       <c r="D18" t="n">
-        <v>-29519.98962615033</v>
+        <v>-53.34643178845545</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Gender': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22014</v>
+        <v>25944</v>
       </c>
       <c r="C19" t="n">
-        <v>31756.87735016486</v>
+        <v>7219.315451383841</v>
       </c>
       <c r="D19" t="n">
-        <v>-32166.78820034161</v>
+        <v>505.9597501705193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Gender': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20079</v>
+        <v>23146</v>
       </c>
       <c r="C20" t="n">
-        <v>53460.04447893988</v>
+        <v>7669.000695259265</v>
       </c>
       <c r="D20" t="n">
-        <v>-10463.62107156659</v>
+        <v>955.6449940459433</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20128</v>
+        <v>22758</v>
       </c>
       <c r="C21" t="n">
-        <v>97021.7782667594</v>
+        <v>4081.320153739394</v>
       </c>
       <c r="D21" t="n">
-        <v>33098.11271625293</v>
+        <v>-2632.035547473928</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Gender': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>21544</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5551.102665918384</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1162.253035294938</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>{'Hobby': np.int64(1), 'Gender': np.int64(1), 'HDI': np.int64(1)}</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>21574</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6412.706957617019</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-300.6487435963027</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>{'Student': np.int64(1), 'Gender': np.int64(1), 'RaceEthnicity': np.int64(1)}</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>22014</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5982.017555487582</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-731.3381457257392</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>{'Student': np.int64(1), 'Gender': np.int64(1), 'HDI': np.int64(1)}</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>22370</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6176.689060932703</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-536.6666402806186</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>{'Student': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>20128</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6694.06933007496</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-19.28637113836157</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>{'Gender': np.int64(1), 'RaceEthnicity': np.int64(1), 'HDI': np.int64(1)}</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>21900</v>
       </c>
-      <c r="C22" t="n">
-        <v>51568.43116287054</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-12355.23438763593</v>
+      <c r="C27" t="n">
+        <v>7566.667087338407</v>
+      </c>
+      <c r="D27" t="n">
+        <v>853.3113861250858</v>
       </c>
     </row>
   </sheetData>
